--- a/51-Class Change System 转职系统.xlsx
+++ b/51-Class Change System 转职系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="342">
   <si>
     <t>视频原文</t>
   </si>
@@ -126,52 +126,52 @@
   </si>
   <si>
     <t>多职业也是可能的。角色可以拥有一个到多个职业，从两个到十个，再到你在插件参数中设置的数量。
-调整多职业在游戏中的行为规则。让角色从多职业、技能、设备访问等中继承一小部分参数！</t>
+调整多职业在游戏中的行为规则。让角色从多职业、技能、装备访问等中继承一小部分参数！</t>
   </si>
   <si>
     <t>功能包括以下所有（但不限于）：</t>
   </si>
   <si>
-    <t>一个自定义场景，让演员在中更改他们的职业。</t>
-  </si>
-  <si>
-    <t>当职业发生更改时，请确定是在所有职业中保持级别，还是每个类都有自己的级别要提升。</t>
-  </si>
-  <si>
-    <t>多职业允许角色同时拥有多个职业。</t>
-  </si>
-  <si>
-    <t>通过插件参数确定每个多职业层的规则，以控制它们对游戏的影响。</t>
-  </si>
-  <si>
-    <t>限制某些多职业层更改职业。</t>
-  </si>
-  <si>
-    <t>只允许某些职业能够装备到特定的多职业层。</t>
-  </si>
-  <si>
-    <t>通过达到某些职业等级，或当某些资源达到某些阈值时，自动解锁新职业。</t>
-  </si>
-  <si>
-    <t>这些资源是新的职业点数CP和职能点数JP。</t>
-  </si>
-  <si>
-    <t>CP和JP是通过该插件添加的全新资源，可以通过参与战斗、击败敌人和/或升级等多种方式获取。</t>
-  </si>
-  <si>
-    <t>还可以通过插件命令解锁类！</t>
-  </si>
-  <si>
-    <t>角色可以根据其主职业类型，拥有特定职业的图形。外观变化范围包括脸图、地图精灵、SV战斗图和其他VisuStella MZ插件使用的肖像。</t>
-  </si>
-  <si>
-    <t>更改职业时，在“职业更改”场景中对角色播放动画。</t>
+    <t>·一个自定义场景，让角色在中更改他们的职业。</t>
+  </si>
+  <si>
+    <t>·当职业发生更改时，请确定是在所有职业中保持等级，还是每个职业都有自己的等级要提升。</t>
+  </si>
+  <si>
+    <t>·多职业允许角色同时拥有多个职业。</t>
+  </si>
+  <si>
+    <t>·通过插件参数确定每个多职业层的规则，以控制它们对游戏的影响。</t>
+  </si>
+  <si>
+    <t>·限制某些多职业层更改职业。</t>
+  </si>
+  <si>
+    <t>·只允许某些职业能够装备到特定的多职业层。</t>
+  </si>
+  <si>
+    <t>·通过达到某些职业等级，或当某些资源达到某些阈值时，自动解锁新职业。</t>
+  </si>
+  <si>
+    <t>·这些资源是新的职业点数CP和职能点数JP。</t>
+  </si>
+  <si>
+    <t>·CP和JP是通过该插件添加的全新资源，可以通过参与战斗、击败敌人和/或升级等多种方式获取。</t>
+  </si>
+  <si>
+    <t>·还可以通过插件命令解锁职业！</t>
+  </si>
+  <si>
+    <t>·角色可以根据其主职业类型，拥有特定职业的图形。外观变化范围包括脸图、地图精灵、SV战斗图和其他VisuStella MZ插件使用的肖像。</t>
+  </si>
+  <si>
+    <t>·更改职业时，在“职业更改”场景中对角色播放动画。</t>
   </si>
   <si>
     <t>Class Specific Graphics 职业特定图形</t>
   </si>
   <si>
-    <t>如果演员有特定于类的图形，他们将覆盖面部图形、地图角色精灵图形、战斗者图形以及通过VisuStella MZ插件添加的任何肖像。类特定图形将优先于默认图形。</t>
+    <t>如果演员有特定于职业的图形，他们将覆盖面部图形、地图角色精灵图形、战斗者图形以及通过VisuStella MZ插件添加的任何肖像。职业特定图形将优先于默认图形。</t>
   </si>
   <si>
     <t>Change Actor Images Event Command 更改角色图像事件命令</t>
@@ -183,6 +183,39 @@
   <si>
     <t>请记住，这意味着您不能再通过“（无）”选择来制作“不可见”图形。
 相反，你需要通过制作一个完全透明的自定义图形图像来解决问题。</t>
+  </si>
+  <si>
+    <t>额外功能</t>
+  </si>
+  <si>
+    <t>Victory Aftermath VisuStella MZ</t>
+  </si>
+  <si>
+    <t>如果安装了VisuStella MZ的Victory Aftermath插件，则可以在奖励窗口中明显显示获得的Job Points和Class Points。</t>
+  </si>
+  <si>
+    <t>Battle Core VisuStella MZ</t>
+  </si>
+  <si>
+    <t>Main Menu Core VisuStella MZ</t>
+  </si>
+  <si>
+    <t>如果安装了战斗核心和/或主菜单核心，等级更改系统还可以访问注释标签，这些注释标签会根据演员的等级更改其战斗肖像和/或菜单肖像</t>
+  </si>
+  <si>
+    <t>兼容性</t>
+  </si>
+  <si>
+    <t>Core Engine VisuStella MZ</t>
+  </si>
+  <si>
+    <t>核心引擎将确定图标是否显示在菜单的职业名旁边。如果您不想使用它们，则需要通过插件参数禁用它们：</t>
+  </si>
+  <si>
+    <t>Core Engine &gt; Plugin Parameters &gt; UI Settings &gt; Text Code &gt; Class Names</t>
+  </si>
+  <si>
+    <t>然后，将该值设置为false。</t>
   </si>
   <si>
     <t>澄清</t>
@@ -205,7 +238,7 @@
 如果所有职业都共享一种技能类型，那么这些技能也将可用于该技能类型。</t>
   </si>
   <si>
-    <t>如果你不想让你的课程获得相同技能类型的所有技能，那么给他们提供每个职业特有的不同技能类型，并将为这些职业学习的技能的技能类型，更改为该职业特有的技能类型。</t>
+    <t>如果你不想让你的职业获得相同技能类型的所有技能，那么给他们提供每个职业特有的不同技能类型，并将为这些职业学习的技能的技能类型，更改为该职业特有的技能类型。</t>
   </si>
   <si>
     <t>问：为什么即使我的角色无法使用父技能，技能和状态核心中的&lt;Passive State: x&gt;注释标签也适用？</t>
@@ -299,13 +332,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>这将返回角色在x多类槽中拥有的任何职业的</t>
     </r>
     <r>
@@ -1955,6 +1981,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">JS：额外数据：
 </t>
     </r>
@@ -2148,7 +2181,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2227,6 +2260,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2859,133 +2900,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3098,9 +3139,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3122,28 +3160,31 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3499,10 +3540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3512,8 +3553,8 @@
     <col min="3" max="3" width="93.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" spans="1:1">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="41" customFormat="1" spans="1:1">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3577,8 +3618,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" s="42" customFormat="1" spans="1:1">
-      <c r="A18" s="43" t="s">
+    <row r="18" s="41" customFormat="1" spans="1:1">
+      <c r="A18" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3612,8 +3653,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" s="42" customFormat="1" spans="1:1">
-      <c r="A27" s="43" t="s">
+    <row r="27" s="41" customFormat="1" spans="1:1">
+      <c r="A27" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3693,7 +3734,7 @@
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:1">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="38" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3703,7 +3744,7 @@
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:1">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="38" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3717,143 +3758,198 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" ht="22.5" spans="1:2">
-      <c r="A53" s="44" t="s">
+    <row r="53" s="41" customFormat="1" spans="1:1">
+      <c r="A53" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="45"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="46" t="s">
+      <c r="B55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" ht="54" spans="2:2">
-      <c r="B56" s="31" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" ht="40.5" spans="2:2">
-      <c r="B57" s="31" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="46" t="s">
+    <row r="61" s="41" customFormat="1" spans="1:1">
+      <c r="A61" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="46" t="s">
+      <c r="B65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="67" ht="22.5" spans="1:2">
+      <c r="A67" s="44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="67" ht="5" customHeight="1"/>
-    <row r="68" spans="2:2">
-      <c r="B68" s="47" t="s">
+      <c r="B67" s="45"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="49" t="s">
+    <row r="70" ht="54" spans="2:2">
+      <c r="B70" s="31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" ht="5" customHeight="1"/>
+    <row r="71" ht="40.5" spans="2:2">
+      <c r="B71" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="48" t="s">
+      <c r="B72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="75" ht="5" customHeight="1"/>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="47" t="s">
-        <v>59</v>
+      <c r="B76" s="31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="49" t="s">
+      <c r="B77" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" ht="27" spans="2:2">
-      <c r="B81" s="31" t="s">
+      <c r="B80" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="81" ht="5" customHeight="1"/>
+    <row r="82" spans="2:2">
+      <c r="B82" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="46" t="s">
-        <v>64</v>
+      <c r="B83" s="48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+      <c r="B84" s="49" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="85" ht="5" customHeight="1"/>
     <row r="86" spans="2:2">
-      <c r="B86" t="s">
+      <c r="B86" s="47" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" ht="5" customHeight="1"/>
+    <row r="90" spans="2:2">
+      <c r="B90" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="2:2">
+      <c r="B95" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3881,351 +3977,351 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="39" t="s">
-        <v>68</v>
+      <c r="A1" s="38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="37.5" spans="1:3">
       <c r="A5" s="31" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:1">
-      <c r="A7" s="39" t="s">
-        <v>78</v>
+      <c r="A7" s="38" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="61.5" spans="1:4">
       <c r="A8" s="31" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="61.5" spans="1:4">
       <c r="A9" s="31" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="49.5" spans="1:4">
       <c r="A10" s="31" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="63" spans="1:4">
       <c r="A11" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="63" spans="1:4">
       <c r="A12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
       <c r="D12" s="31" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="39" t="s">
-        <v>95</v>
+      <c r="A14" s="38" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:3">
       <c r="A15" s="31" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="283.5" spans="1:4">
       <c r="A16" s="29" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:1">
-      <c r="A18" s="39" t="s">
-        <v>101</v>
+      <c r="A18" s="38" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="37.5" spans="1:3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" ht="61.5" spans="1:4">
       <c r="A20" s="31" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:3">
       <c r="A21" s="31" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:3">
       <c r="A22" s="31" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:1">
-      <c r="A24" s="39" t="s">
-        <v>111</v>
+      <c r="A24" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" ht="49.5" spans="1:3">
       <c r="A26" s="31" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" ht="37.5" spans="1:3">
       <c r="A27" s="31" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" ht="37.5" spans="1:3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:3">
       <c r="A29" s="31" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" ht="37.5" spans="1:3">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:1">
-      <c r="A32" s="39" t="s">
-        <v>127</v>
+      <c r="A32" s="38" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:3">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="49.5" spans="1:3">
       <c r="A34" s="31" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" ht="37.5" spans="1:3">
       <c r="A35" s="31" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" ht="37.5" spans="1:3">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:3">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" ht="37.5" spans="1:3">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4251,193 +4347,193 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="39" t="s">
-        <v>140</v>
+      <c r="A1" s="38" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>141</v>
+      <c r="A2" s="39" t="s">
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="40" t="s">
-        <v>143</v>
+      <c r="A3" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
-        <v>145</v>
+      <c r="A4" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40" t="s">
-        <v>147</v>
+      <c r="A5" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:1">
-      <c r="A7" s="39" t="s">
-        <v>149</v>
+      <c r="A7" s="38" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="40" t="s">
-        <v>150</v>
+      <c r="A8" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="40" t="s">
-        <v>152</v>
+      <c r="A9" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:1">
-      <c r="A11" s="39" t="s">
-        <v>154</v>
+      <c r="A11" s="38" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="40" t="s">
-        <v>155</v>
+      <c r="A12" s="39" t="s">
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="40" t="s">
-        <v>157</v>
+      <c r="A13" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
-        <v>159</v>
+      <c r="A14" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40" t="s">
-        <v>161</v>
+      <c r="A15" s="39" t="s">
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:1">
-      <c r="A17" s="39" t="s">
-        <v>163</v>
+      <c r="A17" s="38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="40" t="s">
-        <v>164</v>
+      <c r="A18" s="39" t="s">
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="40" t="s">
-        <v>166</v>
+      <c r="A19" s="39" t="s">
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="40" t="s">
-        <v>168</v>
+      <c r="A20" s="39" t="s">
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="40" t="s">
-        <v>170</v>
+      <c r="A21" s="39" t="s">
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:1">
-      <c r="A23" s="39" t="s">
-        <v>172</v>
+      <c r="A23" s="38" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="40" t="s">
-        <v>173</v>
+      <c r="A24" s="39" t="s">
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="40" t="s">
-        <v>175</v>
+      <c r="A25" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="40" t="s">
-        <v>177</v>
+      <c r="A26" s="39" t="s">
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="40" t="s">
-        <v>179</v>
+      <c r="A27" s="39" t="s">
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:1">
-      <c r="A29" s="39" t="s">
-        <v>181</v>
+      <c r="A29" s="38" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="40" t="s">
-        <v>182</v>
+      <c r="A30" s="39" t="s">
+        <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="40" t="s">
-        <v>184</v>
+      <c r="A31" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4548,7 @@
   <sheetPr/>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -4467,92 +4563,92 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="26" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C4" s="10">
         <v>96</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" ht="37.5" spans="1:4">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:1">
       <c r="A8" s="26" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" ht="25.5" spans="1:3">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -4560,123 +4656,123 @@
     </row>
     <row r="12" ht="18.75" spans="1:1">
       <c r="A12" s="30" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:2">
       <c r="A15" s="25" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:3">
       <c r="A17" s="31" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:1">
       <c r="A24" s="25" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -4684,19 +4780,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4704,293 +4800,293 @@
     </row>
     <row r="29" ht="18.75" spans="1:1">
       <c r="A29" s="25" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:4">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D36"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:4">
       <c r="A43" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>275</v>
+        <v>284</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:1">
       <c r="A48" s="25" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:4">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D51" s="38"/>
+        <v>299</v>
+      </c>
+      <c r="D51" s="37"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:1">
       <c r="A55" s="25" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:4">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D58" s="38"/>
+        <v>306</v>
+      </c>
+      <c r="D58" s="37"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5021,42 +5117,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -5066,28 +5162,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -5098,10 +5194,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C6" s="15">
         <v>0</v>
@@ -5116,7 +5212,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
@@ -5126,25 +5222,25 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B9" s="15">
         <v>78</v>
@@ -5162,7 +5258,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="16"/>
@@ -5172,61 +5268,61 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="16"/>
@@ -5236,10 +5332,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
@@ -5248,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -5272,10 +5368,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C17" s="11">
         <v>0</v>
@@ -5284,31 +5380,31 @@
         <v>0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="16"/>
@@ -5318,73 +5414,73 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F23" s="23"/>
     </row>
@@ -5415,42 +5511,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -5460,28 +5556,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -5492,10 +5588,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C6" s="15">
         <v>0</v>
@@ -5510,7 +5606,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
@@ -5520,25 +5616,25 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B9" s="15">
         <v>78</v>
@@ -5556,7 +5652,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="16"/>
@@ -5566,61 +5662,61 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="16"/>
@@ -5630,7 +5726,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B15" s="20">
         <v>0</v>
@@ -5648,7 +5744,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -5666,7 +5762,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B17" s="20">
         <v>0</v>
@@ -5684,25 +5780,25 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="16"/>
@@ -5712,73 +5808,73 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F23" s="23"/>
     </row>

--- a/51-Class Change System 转职系统.xlsx
+++ b/51-Class Change System 转职系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D43" authorId="0">
+    <comment ref="D69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="389">
   <si>
     <t>视频原文</t>
   </si>
@@ -332,6 +332,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这将返回角色在x多类槽中拥有的任何职业的</t>
     </r>
     <r>
@@ -396,7 +403,7 @@
     </r>
   </si>
   <si>
-    <t>x值为1将产生主类的ID。</t>
+    <t>x值为1将产生主职业的ID。</t>
   </si>
   <si>
     <t>当我对角色使用事件命令时，为什么我的副职业没有获得等级或经验？</t>
@@ -1652,7 +1659,7 @@
     <t>General Settings  常规设置</t>
   </si>
   <si>
-    <t>Basics</t>
+    <t>Basics  基础</t>
   </si>
   <si>
     <t>Default Help</t>
@@ -1715,7 +1722,26 @@
     <t>使用 MaxHP/MaxMP 值，更改职业后，调整 HP/MP 差异？</t>
   </si>
   <si>
-    <t>Class Unlocking</t>
+    <t>Select Same Subclass?:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">允许选择该插槽中已配备的相同子类吗？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·这主要是一种美学上的东西，如果你想控制的话，允许/阻止选择相同的子类。</t>
+    </r>
+  </si>
+  <si>
+    <t>Class Unlocking  职业解锁</t>
   </si>
   <si>
     <t>Always Unlocked</t>
@@ -1852,13 +1878,462 @@
     <t>Units gain all the benefits of its primary class.</t>
   </si>
   <si>
-    <t>单位获得其主职业的所有加成。</t>
+    <t>主职业不可进行切换。</t>
   </si>
   <si>
     <t>Assign a class to this slot.</t>
   </si>
   <si>
     <t>为此插槽分配一个职业。</t>
+  </si>
+  <si>
+    <t>Base Parameter Bonuses  基础参数奖励</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MaxHP:
+ MaxMP:
+ ATK:
+ DEF:
+ MAT:
+ MDF:
+ AGI:
+ LUK:</t>
+  </si>
+  <si>
+    <t>这个职业层的参数应该添加到基本统计数据中多少？
+不适用于Tier 1。</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>Reward Rates  奖励率</t>
+  </si>
+  <si>
+    <t>EXP:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">这个层级的职业，可以获得多少经验值？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-不适用于Tier 1。
+-仅用于战斗奖励。</t>
+    </r>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Resources:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">这个层级的职业，可以获得资源（即CP、JP）的rate？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-不适用于Tier 1。
+-仅用于战斗奖励。</t>
+    </r>
+  </si>
+  <si>
+    <t>Inherit Traits  继承特征</t>
+  </si>
+  <si>
+    <t>Rates  比率</t>
+  </si>
+  <si>
+    <t>Element Rates?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">元素比率
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承元素率？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>Debuff Rates?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Debuff比率
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承Debuff比率？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>State Rates?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">状态比率
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承状态比率？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>State Resistance?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">状态抵抗
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承状态抵抗？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>Param Rates  参数比率</t>
+  </si>
+  <si>
+    <t>Base-Param Rates?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Base-Param 比率?:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承率Base-Param 比率？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>X-Param Rates?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">X-Param 比率?:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承率X-Param 比率？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>S-Param Rates?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">S-Param 比率?:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承率S-Param 比率？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>Attack  攻击</t>
+  </si>
+  <si>
+    <t>Attack Elements?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">攻击元素？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承攻击元素？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>Attack States?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">攻击状态？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承攻击状态？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>Skills  技能</t>
+  </si>
+  <si>
+    <t>Added STypes?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">攻击类型？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承添加的攻击类型？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>Added Skills?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">攻击技能？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承添加的攻击技能？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>Equipment  装备</t>
+  </si>
+  <si>
+    <t>Equippable Weapons?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">攻击类型？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承添加的装备武器？
+-不适用于Tier 1。</t>
+    </r>
+  </si>
+  <si>
+    <t>Equippable Armors?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">攻击类型？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-从该职业层继承添加的装备防具？
+-不适用于Tier 1。</t>
+    </r>
   </si>
   <si>
     <t>Window Settings  窗口设置</t>
@@ -1918,6 +2393,28 @@
   </si>
   <si>
     <t>120</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Play for Unassign?:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">播放取消分配子类的动画？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·如果你想控制的话，在取消分配子类时播放/不播放动画主要是一种美学上的事情。</t>
+    </r>
   </si>
   <si>
     <t>Show Class Level?:</t>
@@ -2213,9 +2710,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2224,13 +2736,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2253,13 +2758,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2454,16 +2952,16 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2474,7 +2972,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2495,6 +2993,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2502,12 +3012,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,7 +3410,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2930,16 +3434,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2948,89 +3452,89 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3106,23 +3610,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3130,43 +3649,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3542,8 +4061,8 @@
   <sheetPr/>
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3553,8 +4072,8 @@
     <col min="3" max="3" width="93.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" spans="1:1">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="47" customFormat="1" spans="1:1">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3618,8 +4137,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" s="41" customFormat="1" spans="1:1">
-      <c r="A18" s="42" t="s">
+    <row r="18" s="47" customFormat="1" spans="1:1">
+      <c r="A18" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3653,18 +4172,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" s="41" customFormat="1" spans="1:1">
-      <c r="A27" s="42" t="s">
+    <row r="27" s="47" customFormat="1" spans="1:1">
+      <c r="A27" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="27" spans="2:2">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="27" spans="2:2">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="36" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3734,7 +4253,7 @@
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:1">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3744,22 +4263,22 @@
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:1">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:2">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="51" ht="27" spans="2:2">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" s="41" customFormat="1" spans="1:1">
-      <c r="A53" s="42" t="s">
+    <row r="53" s="47" customFormat="1" spans="1:1">
+      <c r="A53" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3788,8 +4307,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" s="41" customFormat="1" spans="1:1">
-      <c r="A61" s="42" t="s">
+    <row r="61" s="47" customFormat="1" spans="1:1">
+      <c r="A61" s="25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3804,7 +4323,7 @@
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="48" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3814,10 +4333,10 @@
       </c>
     </row>
     <row r="67" ht="22.5" spans="1:2">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="45"/>
+      <c r="B67" s="50"/>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
@@ -3825,17 +4344,17 @@
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" ht="54" spans="2:2">
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="71" ht="40.5" spans="2:2">
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="36" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3845,7 +4364,7 @@
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3855,7 +4374,7 @@
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3865,7 +4384,7 @@
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3876,64 +4395,64 @@
     </row>
     <row r="81" ht="5" customHeight="1"/>
     <row r="82" spans="2:2">
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="54" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="85" ht="5" customHeight="1"/>
     <row r="86" spans="2:2">
-      <c r="B86" s="47" t="s">
+      <c r="B86" s="52" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="48" t="s">
+      <c r="B87" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="89" ht="5" customHeight="1"/>
     <row r="90" spans="2:2">
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="52" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="56" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="51" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="95" ht="27" spans="2:2">
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="51" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3964,8 +4483,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3977,7 +4496,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3985,7 +4504,7 @@
       <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -3993,10 +4512,10 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C3" t="s">
@@ -4007,7 +4526,7 @@
       <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C4" t="s">
@@ -4015,10 +4534,10 @@
       </c>
     </row>
     <row r="5" ht="37.5" spans="1:3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="34" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
@@ -4026,90 +4545,90 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" ht="61.5" spans="1:4">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" ht="61.5" spans="1:4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="34" t="s">
         <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="36" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" ht="49.5" spans="1:4">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" ht="63" spans="1:4">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="46" t="s">
         <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" ht="63" spans="1:4">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="46" t="s">
         <v>104</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="36" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="34" t="s">
         <v>108</v>
       </c>
       <c r="C15" t="s">
@@ -4117,21 +4636,21 @@
       </c>
     </row>
     <row r="16" ht="283.5" spans="1:4">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="36" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="44" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4139,7 +4658,7 @@
       <c r="A19" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="34" t="s">
         <v>114</v>
       </c>
       <c r="C19" t="s">
@@ -4147,24 +4666,24 @@
       </c>
     </row>
     <row r="20" ht="61.5" spans="1:4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="34" t="s">
         <v>116</v>
       </c>
       <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="34" t="s">
         <v>119</v>
       </c>
       <c r="C21" t="s">
@@ -4172,10 +4691,10 @@
       </c>
     </row>
     <row r="22" ht="27" spans="1:3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="34" t="s">
         <v>121</v>
       </c>
       <c r="C22" t="s">
@@ -4183,7 +4702,7 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="44" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4191,7 +4710,7 @@
       <c r="A25" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C25" t="s">
@@ -4199,10 +4718,10 @@
       </c>
     </row>
     <row r="26" ht="49.5" spans="1:3">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C26" t="s">
@@ -4210,10 +4729,10 @@
       </c>
     </row>
     <row r="27" ht="37.5" spans="1:3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="34" t="s">
         <v>128</v>
       </c>
       <c r="C27" t="s">
@@ -4224,7 +4743,7 @@
       <c r="A28" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="34" t="s">
         <v>131</v>
       </c>
       <c r="C28" t="s">
@@ -4232,10 +4751,10 @@
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="34" t="s">
         <v>133</v>
       </c>
       <c r="C29" t="s">
@@ -4246,7 +4765,7 @@
       <c r="A30" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="34" t="s">
         <v>136</v>
       </c>
       <c r="C30" t="s">
@@ -4254,7 +4773,7 @@
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:1">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="44" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4262,7 +4781,7 @@
       <c r="A33" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C33" t="s">
@@ -4270,10 +4789,10 @@
       </c>
     </row>
     <row r="34" ht="49.5" spans="1:3">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C34" t="s">
@@ -4281,10 +4800,10 @@
       </c>
     </row>
     <row r="35" ht="37.5" spans="1:3">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="34" t="s">
         <v>144</v>
       </c>
       <c r="C35" t="s">
@@ -4295,7 +4814,7 @@
       <c r="A36" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="34" t="s">
         <v>146</v>
       </c>
       <c r="C36" t="s">
@@ -4306,7 +4825,7 @@
       <c r="A37" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="34" t="s">
         <v>148</v>
       </c>
       <c r="C37" t="s">
@@ -4317,7 +4836,7 @@
       <c r="A38" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="34" t="s">
         <v>150</v>
       </c>
       <c r="C38" t="s">
@@ -4337,7 +4856,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4347,12 +4866,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>152</v>
       </c>
       <c r="B2" t="s">
@@ -4360,7 +4879,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>154</v>
       </c>
       <c r="B3" t="s">
@@ -4368,7 +4887,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="45" t="s">
         <v>156</v>
       </c>
       <c r="B4" t="s">
@@ -4376,7 +4895,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="45" t="s">
         <v>158</v>
       </c>
       <c r="B5" t="s">
@@ -4384,12 +4903,12 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="44" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="45" t="s">
         <v>161</v>
       </c>
       <c r="B8" t="s">
@@ -4397,7 +4916,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="45" t="s">
         <v>163</v>
       </c>
       <c r="B9" t="s">
@@ -4405,12 +4924,12 @@
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="44" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="45" t="s">
         <v>166</v>
       </c>
       <c r="B12" t="s">
@@ -4418,7 +4937,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="45" t="s">
         <v>168</v>
       </c>
       <c r="B13" t="s">
@@ -4426,7 +4945,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="45" t="s">
         <v>170</v>
       </c>
       <c r="B14" t="s">
@@ -4434,7 +4953,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="45" t="s">
         <v>172</v>
       </c>
       <c r="B15" t="s">
@@ -4442,12 +4961,12 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="44" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="45" t="s">
         <v>175</v>
       </c>
       <c r="B18" t="s">
@@ -4455,7 +4974,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="45" t="s">
         <v>177</v>
       </c>
       <c r="B19" t="s">
@@ -4463,7 +4982,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="45" t="s">
         <v>179</v>
       </c>
       <c r="B20" t="s">
@@ -4471,7 +4990,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="45" t="s">
         <v>181</v>
       </c>
       <c r="B21" t="s">
@@ -4479,12 +4998,12 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:1">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="45" t="s">
         <v>184</v>
       </c>
       <c r="B24" t="s">
@@ -4492,7 +5011,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="45" t="s">
         <v>186</v>
       </c>
       <c r="B25" t="s">
@@ -4500,7 +5019,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B26" t="s">
@@ -4508,7 +5027,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="45" t="s">
         <v>190</v>
       </c>
       <c r="B27" t="s">
@@ -4516,12 +5035,12 @@
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:1">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="45" t="s">
         <v>193</v>
       </c>
       <c r="B30" t="s">
@@ -4529,7 +5048,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="45" t="s">
         <v>195</v>
       </c>
       <c r="B31" t="s">
@@ -4546,30 +5065,34 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="60.875" customWidth="1"/>
+    <col min="2" max="2" width="64.125" customWidth="1"/>
     <col min="3" max="3" width="21.875" style="10" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="10" customWidth="1"/>
     <col min="6" max="6" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="25" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A1" s="28" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" s="26" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A2" s="30" t="s">
         <v>198</v>
       </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -4581,7 +5104,7 @@
       <c r="C3" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="32" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4595,7 +5118,7 @@
       <c r="C4" s="10">
         <v>96</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="33" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4603,13 +5126,13 @@
       <c r="A5" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="34" t="s">
         <v>207</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="32" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4624,111 +5147,122 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:1">
-      <c r="A8" s="26" t="s">
+    <row r="7" ht="25.5" spans="1:4">
+      <c r="A7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" s="26" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A9" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="10" ht="25.5" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="11" ht="25.5" spans="1:3">
+      <c r="A11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="29"/>
-    </row>
-    <row r="12" ht="18.75" spans="1:1">
-      <c r="A12" s="30" t="s">
+      <c r="B11" s="34" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C11" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="34"/>
+    </row>
+    <row r="13" s="25" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A13" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="15" ht="18.75" spans="1:2">
-      <c r="A15" s="25" t="s">
+      <c r="B14" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="29"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C14" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="16" s="25" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A16" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:3">
-      <c r="A17" s="31" t="s">
+      <c r="B17" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="32" t="s">
+    </row>
+    <row r="18" ht="40.5" spans="1:3">
+      <c r="A18" s="36" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="19" ht="18.75" spans="1:1">
-      <c r="A19" s="25" t="s">
+      <c r="B18" s="36" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="C18" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="20" s="25" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A20" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -4738,354 +5272,674 @@
       <c r="C22" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="33" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="E22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" spans="1:1">
-      <c r="A24" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="E23" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="10" t="s">
+    </row>
+    <row r="25" s="25" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A25" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>242</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C26" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="D26" s="32" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="F26" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>247</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>249</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C28" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="D28" s="32" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="31"/>
-    </row>
-    <row r="29" ht="18.75" spans="1:1">
-      <c r="A29" s="25" t="s">
+      <c r="E28" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="F28" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="29" s="26" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A29" s="30" t="s">
         <v>254</v>
       </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" ht="108" spans="1:6">
+      <c r="A30" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>256</v>
+      </c>
       <c r="C30" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="10" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="32" ht="25.5" spans="1:4">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" s="26" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A31" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" ht="37.5" spans="1:6">
       <c r="A32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="29" t="s">
         <v>259</v>
       </c>
+      <c r="B32" s="34" t="s">
+        <v>260</v>
+      </c>
       <c r="C32" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="35" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" ht="37.5" spans="1:6">
       <c r="A33" t="s">
         <v>262</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="34" t="s">
         <v>263</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" s="26" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A34" s="30" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" s="27" customFormat="1" spans="1:6">
+      <c r="A35" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" ht="37.5" spans="1:6">
+      <c r="A36" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="B36" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" ht="37.5" spans="1:6">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" ht="37.5" spans="1:6">
+      <c r="A38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" ht="37.5" spans="1:6">
+      <c r="A39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" s="27" customFormat="1" spans="1:6">
+      <c r="A40" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" ht="37.5" spans="1:6">
+      <c r="A41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" ht="37.5" spans="1:6">
+      <c r="A42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" ht="37.5" spans="1:6">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" s="27" customFormat="1" spans="1:6">
+      <c r="A44" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" ht="37.5" spans="1:6">
+      <c r="A45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" ht="37.5" spans="1:6">
+      <c r="A46" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" s="27" customFormat="1" spans="1:6">
+      <c r="A47" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" ht="37.5" spans="1:6">
+      <c r="A48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>275</v>
-      </c>
-      <c r="B40" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>278</v>
-      </c>
-      <c r="B41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>280</v>
-      </c>
-      <c r="B42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" ht="25.5" spans="1:4">
-      <c r="A43" t="s">
-        <v>284</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>287</v>
-      </c>
-      <c r="B45" t="s">
-        <v>288</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D45" s="27" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" ht="37.5" spans="1:6">
+      <c r="A49" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="B49" s="34" t="s">
         <v>290</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:4">
-      <c r="A49" t="s">
-        <v>294</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" s="27" customFormat="1" spans="1:6">
+      <c r="A50" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+    </row>
+    <row r="51" ht="37.5" spans="1:6">
+      <c r="A51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" ht="37.5" spans="1:6">
+      <c r="A52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C52" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="36"/>
+    </row>
+    <row r="54" s="25" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A54" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="B55" t="s">
         <v>298</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C55" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>299</v>
       </c>
-      <c r="D51" s="37"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B56" t="s">
         <v>300</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D53" s="27" t="s">
+    </row>
+    <row r="57" ht="25.5" spans="1:4">
+      <c r="A57" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="25" t="s">
+      <c r="B57" s="34" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:4">
-      <c r="A56" t="s">
-        <v>294</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>295</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="41" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>306</v>
+      </c>
+      <c r="B58" t="s">
+        <v>307</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D58" s="37"/>
-    </row>
-    <row r="60" spans="1:4">
+        <v>308</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" spans="1:4">
+      <c r="A59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>307</v>
+        <v>312</v>
+      </c>
+      <c r="B60" t="s">
+        <v>313</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D60" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>300</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>308</v>
+        <v>314</v>
+      </c>
+      <c r="B62" t="s">
+        <v>315</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" spans="1:4">
+      <c r="A69" t="s">
+        <v>331</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" t="s">
+        <v>335</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" s="25" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A74" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+    </row>
+    <row r="75" customFormat="1" spans="1:4">
+      <c r="A75" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D77" s="43"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="81" s="25" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A81" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+    </row>
+    <row r="82" customFormat="1" spans="1:4">
+      <c r="A82" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>345</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D84" s="43"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>355</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="41" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5117,42 +5971,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -5162,7 +6016,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>209</v>
@@ -5180,7 +6034,7 @@
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>205</v>
@@ -5194,7 +6048,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>205</v>
@@ -5212,7 +6066,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
@@ -5222,7 +6076,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>209</v>
@@ -5240,7 +6094,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="B9" s="15">
         <v>78</v>
@@ -5258,7 +6112,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="16"/>
@@ -5268,61 +6122,61 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="16"/>
@@ -5332,10 +6186,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
@@ -5344,13 +6198,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -5368,10 +6222,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="C17" s="11">
         <v>0</v>
@@ -5380,13 +6234,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>209</v>
@@ -5404,7 +6258,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="16"/>
@@ -5414,7 +6268,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>209</v>
@@ -5432,25 +6286,25 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>209</v>
@@ -5468,19 +6322,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="F23" s="23"/>
     </row>
@@ -5511,42 +6365,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -5556,7 +6410,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>209</v>
@@ -5574,7 +6428,7 @@
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>205</v>
@@ -5588,7 +6442,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>205</v>
@@ -5606,7 +6460,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
@@ -5616,7 +6470,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>208</v>
@@ -5634,7 +6488,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="B9" s="15">
         <v>78</v>
@@ -5652,7 +6506,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="16"/>
@@ -5662,61 +6516,61 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="16"/>
@@ -5726,7 +6580,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="B15" s="20">
         <v>0</v>
@@ -5744,7 +6598,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -5762,7 +6616,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="B17" s="20">
         <v>0</v>
@@ -5780,7 +6634,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>209</v>
@@ -5798,7 +6652,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="16"/>
@@ -5808,7 +6662,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>208</v>
@@ -5826,25 +6680,25 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>208</v>
@@ -5862,19 +6716,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="F23" s="23"/>
     </row>
